--- a/data/xls/IKMS Tranfer AFA Burundi Lait.xlsx
+++ b/data/xls/IKMS Tranfer AFA Burundi Lait.xlsx
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="129">
-  <si>
-    <t xml:space="preserve">Here you define the studied value chain key characteristics, in order to match economic, social and ACV studies part</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="128">
   <si>
     <t xml:space="preserve">Property</t>
   </si>
@@ -427,7 +424,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -449,12 +446,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -519,11 +510,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,8 +548,8 @@
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -577,7 +568,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
@@ -596,541 +587,541 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>767135.966288091</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>221289.221044642</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>752885.310891548</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>217178.45506487</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>347670.319149328</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>36215.6573452961</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>19315.0172508246</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>1241.67968041015</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>1448.62629381185</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>7480.60000943869</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>77683.1507287011</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>474752.445504823</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>11965.0222586716</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>607298.251305831</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>117734.640866035</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>90565.1061092797</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>39290.0395350325</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>7619.8864036676</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>1959.3993609431</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L11" s="2" t="n">
         <v>1714.47448340464</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>21654.9243282192</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>5774.64648752512</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>3341.04532948945</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>433.098486564384</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1806989.5428543</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>521246.983515662</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1149,7 +1140,7 @@
       <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
@@ -1160,19 +1151,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,13 +1171,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>2750.84413101868</v>
@@ -1197,13 +1188,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>4439.83919241145</v>
@@ -1214,13 +1205,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>13654.4841178922</v>
@@ -1231,13 +1222,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>2983.31386141011</v>
@@ -1248,13 +1239,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>120.946766520263</v>
@@ -1265,13 +1256,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>865.896116481989</v>
@@ -1282,13 +1273,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>13.6872472670178</v>
@@ -1299,13 +1290,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -1316,13 +1307,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1333,13 +1324,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>41.0541755671076</v>
@@ -1350,13 +1341,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>17.953433093075</v>
@@ -1367,13 +1358,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
@@ -1384,13 +1375,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -1401,13 +1392,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -1418,13 +1409,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -1435,13 +1426,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -1452,13 +1443,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>2105.43113264954</v>
@@ -1469,13 +1460,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>9457.71348197013</v>
@@ -1486,13 +1477,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>14369.654798043</v>
@@ -1503,13 +1494,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>17025.5780433751</v>
@@ -1520,13 +1511,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>14102.9557483952</v>
@@ -1537,13 +1528,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>4758.96534664921</v>
@@ -1554,13 +1545,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1708.75554927543</v>
@@ -1571,13 +1562,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>38588.1539915245</v>
@@ -1588,13 +1579,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>11924.3229524614</v>
@@ -1605,13 +1596,13 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>13715.7333486924</v>
@@ -1622,13 +1613,13 @@
         <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>1330.79847025831</v>
@@ -1639,13 +1630,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>24677.4267620632</v>
@@ -1656,13 +1647,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -1673,13 +1664,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -1690,13 +1681,13 @@
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -1707,13 +1698,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>0</v>
@@ -1724,13 +1715,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
@@ -1741,13 +1732,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0</v>
@@ -1758,13 +1749,13 @@
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -1775,13 +1766,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>0</v>
@@ -1792,13 +1783,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
@@ -1809,13 +1800,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>58.4479914299166</v>
@@ -1826,13 +1817,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>0</v>
@@ -1843,13 +1834,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>0</v>
@@ -1860,13 +1851,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>0</v>
@@ -1877,13 +1868,13 @@
         <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>0</v>
@@ -1894,13 +1885,13 @@
         <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>0</v>
@@ -1911,13 +1902,13 @@
         <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>0</v>
@@ -1928,13 +1919,13 @@
         <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>0</v>
@@ -1945,13 +1936,13 @@
         <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>0</v>
@@ -1962,13 +1953,13 @@
         <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>0</v>
@@ -1979,13 +1970,13 @@
         <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>0</v>
@@ -1996,13 +1987,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>0</v>
@@ -2013,13 +2004,13 @@
         <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>0</v>
@@ -2030,13 +2021,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>0</v>
@@ -2047,13 +2038,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>0</v>
@@ -2064,13 +2055,13 @@
         <v>5</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>0</v>
@@ -2081,13 +2072,13 @@
         <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>0</v>
@@ -2098,13 +2089,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>0</v>
@@ -2115,13 +2106,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>0</v>
@@ -2132,13 +2123,13 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>0</v>
@@ -2149,13 +2140,13 @@
         <v>10</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>149.113248908792</v>
@@ -2166,13 +2157,13 @@
         <v>11</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>112.208998469536</v>
@@ -2183,13 +2174,13 @@
         <v>12</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>0</v>
@@ -2200,13 +2191,13 @@
         <v>13</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>0</v>
@@ -2217,13 +2208,13 @@
         <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>0</v>
@@ -2234,13 +2225,13 @@
         <v>15</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>0</v>
@@ -2251,13 +2242,13 @@
         <v>16</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>0</v>
@@ -2268,13 +2259,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>7136.6790744488</v>
@@ -2285,13 +2276,13 @@
         <v>2</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>6223.0362003648</v>
@@ -2302,13 +2293,13 @@
         <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>17444.1461494702</v>
@@ -2319,13 +2310,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>10941.9222699632</v>
@@ -2336,13 +2327,13 @@
         <v>5</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>81.752117035302</v>
@@ -2353,13 +2344,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>76.2396890811469</v>
@@ -2370,13 +2361,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>734.464823495301</v>
@@ -2387,13 +2378,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>5667.63292753216</v>
@@ -2404,13 +2395,13 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>1173.86239343195</v>
@@ -2421,13 +2412,13 @@
         <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>724.285703542013</v>
@@ -2438,13 +2429,13 @@
         <v>11</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>177.290225027688</v>
@@ -2455,13 +2446,13 @@
         <v>12</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>9232.43687834594</v>
@@ -2472,13 +2463,13 @@
         <v>13</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>0</v>
@@ -2489,13 +2480,13 @@
         <v>14</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>0</v>
@@ -2506,13 +2497,13 @@
         <v>15</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>0</v>
@@ -2523,13 +2514,13 @@
         <v>16</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>0</v>
@@ -2540,13 +2531,13 @@
         <v>1</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>13645.028477021</v>
@@ -2557,13 +2548,13 @@
         <v>2</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>21453.0795799329</v>
@@ -2574,13 +2565,13 @@
         <v>3</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>46800.4747732908</v>
@@ -2591,13 +2582,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>34055.7864722794</v>
@@ -2608,13 +2599,13 @@
         <v>5</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>15153.1829911701</v>
@@ -2625,13 +2616,13 @@
         <v>6</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>7272.48900066694</v>
@@ -2642,13 +2633,13 @@
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>3098.43191764212</v>
@@ -2659,13 +2650,13 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>44255.7869190567</v>
@@ -2676,13 +2667,13 @@
         <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>14213.137423961</v>
@@ -2693,13 +2684,13 @@
         <v>10</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>14958.5237710325</v>
@@ -2710,13 +2701,13 @@
         <v>11</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>1750.46012531815</v>
@@ -2727,13 +2718,13 @@
         <v>12</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>36290.0825107558</v>
@@ -2744,13 +2735,13 @@
         <v>13</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>0</v>
@@ -2761,13 +2752,13 @@
         <v>14</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>0</v>
@@ -2778,13 +2769,13 @@
         <v>15</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>0</v>
@@ -2795,13 +2786,13 @@
         <v>16</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>0</v>
@@ -2812,13 +2803,13 @@
         <v>1</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>26.4823468169197</v>
@@ -2829,13 +2820,13 @@
         <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>421.571727842093</v>
@@ -2846,13 +2837,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>2615.48118178577</v>
@@ -2863,13 +2854,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>224.312439614243</v>
@@ -2880,13 +2871,13 @@
         <v>5</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>129.884424696022</v>
@@ -2897,13 +2888,13 @@
         <v>6</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>0</v>
@@ -2914,13 +2905,13 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>0</v>
@@ -2931,13 +2922,13 @@
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="n">
         <v>0</v>
@@ -2948,13 +2939,13 @@
         <v>9</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>0</v>
@@ -2965,13 +2956,13 @@
         <v>10</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>0</v>
@@ -2982,13 +2973,13 @@
         <v>11</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>0</v>
@@ -2999,13 +2990,13 @@
         <v>12</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>0</v>
@@ -3016,13 +3007,13 @@
         <v>13</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>0</v>
@@ -3033,13 +3024,13 @@
         <v>14</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>0</v>
@@ -3050,13 +3041,13 @@
         <v>15</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>0</v>
@@ -3067,13 +3058,13 @@
         <v>16</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>0</v>
@@ -3084,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>0</v>
@@ -3101,13 +3092,13 @@
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>0</v>
@@ -3118,13 +3109,13 @@
         <v>3</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>0</v>
@@ -3135,13 +3126,13 @@
         <v>4</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>0</v>
@@ -3152,13 +3143,13 @@
         <v>5</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>108.237020580018</v>
@@ -3169,13 +3160,13 @@
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E119" s="2" t="n">
         <v>60.6820051322966</v>
@@ -3186,13 +3177,13 @@
         <v>7</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E120" s="2" t="n">
         <v>0</v>
@@ -3203,13 +3194,13 @@
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E121" s="2" t="n">
         <v>0</v>
@@ -3220,13 +3211,13 @@
         <v>9</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>0.923016012405848</v>
@@ -3237,13 +3228,13 @@
         <v>10</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>3.31362839002792</v>
@@ -3254,13 +3245,13 @@
         <v>11</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>0</v>
@@ -3271,13 +3262,13 @@
         <v>12</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E125" s="2" t="n">
         <v>101.407131923486</v>
@@ -3288,13 +3279,13 @@
         <v>13</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E126" s="2" t="n">
         <v>0</v>
@@ -3305,13 +3296,13 @@
         <v>14</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E127" s="2" t="n">
         <v>0</v>
@@ -3322,13 +3313,13 @@
         <v>15</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E128" s="2" t="n">
         <v>0</v>
@@ -3339,13 +3330,13 @@
         <v>16</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E129" s="2" t="n">
         <v>0</v>
@@ -3356,13 +3347,13 @@
         <v>1</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E130" s="2" t="n">
         <v>1438.37991535664</v>
@@ -3373,13 +3364,13 @@
         <v>2</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E131" s="2" t="n">
         <v>1411.65993688628</v>
@@ -3390,13 +3381,13 @@
         <v>3</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E132" s="2" t="n">
         <v>3388.1053423651</v>
@@ -3407,13 +3398,13 @@
         <v>4</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E133" s="2" t="n">
         <v>2915.03160626799</v>
@@ -3424,13 +3415,13 @@
         <v>5</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E134" s="2" t="n">
         <v>869.175763335379</v>
@@ -3441,13 +3432,13 @@
         <v>6</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>342.89488305551</v>
@@ -3458,13 +3449,13 @@
         <v>7</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E136" s="2" t="n">
         <v>259.859088066428</v>
@@ -3475,13 +3466,13 @@
         <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E137" s="2" t="n">
         <v>0</v>
@@ -3492,13 +3483,13 @@
         <v>9</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E138" s="2" t="n">
         <v>17.9475333880074</v>
@@ -3509,13 +3500,13 @@
         <v>10</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>294.336590469202</v>
@@ -3526,13 +3517,13 @@
         <v>11</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>112.208998469536</v>
@@ -3543,13 +3534,13 @@
         <v>12</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>2278.81173842315</v>
@@ -3560,13 +3551,13 @@
         <v>13</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E142" s="2" t="n">
         <v>0</v>
@@ -3577,13 +3568,13 @@
         <v>14</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E143" s="2" t="n">
         <v>0</v>
@@ -3594,13 +3585,13 @@
         <v>15</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E144" s="2" t="n">
         <v>0</v>
@@ -3611,13 +3602,13 @@
         <v>16</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E145" s="2" t="n">
         <v>0</v>
@@ -3625,8 +3616,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3648,8 +3639,8 @@
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3665,7 +3656,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3673,167 +3664,169 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.37"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="2" t="n">
+        <v>2020</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>2020</v>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1000000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>143000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>143000</v>
-      </c>
-      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -3841,18 +3834,18 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3863,7 +3856,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3874,29 +3867,29 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3907,22 +3900,12 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3944,13 +3927,12 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
+  <mergeCells count="1">
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3976,46 +3958,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4041,13 +4023,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4055,10 +4037,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4066,10 +4048,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4088,10 +4070,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,10 +4081,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,10 +4092,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,10 +4103,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,10 +4114,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,10 +4125,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,10 +4136,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,10 +4147,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,10 +4158,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,10 +4169,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,10 +4180,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4209,10 +4191,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,16 +4202,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4248,7 +4230,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.71"/>
@@ -4258,22 +4240,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4292,7 +4274,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
@@ -4308,34 +4290,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4343,16 +4325,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>26710.8996783256</v>
@@ -4364,7 +4346,7 @@
         <v>300000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,16 +4354,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>849.119975566864</v>
@@ -4393,7 +4375,7 @@
         <v>650000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4401,16 +4383,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>8081.06047525406</v>
@@ -4422,7 +4404,7 @@
         <v>600000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,16 +4412,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>958.919979929924</v>
@@ -4451,7 +4433,7 @@
         <v>675000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4459,16 +4441,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>505.079987347126</v>
@@ -4480,7 +4462,7 @@
         <v>5050000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4488,16 +4470,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>36494.7001552582</v>
@@ -4509,7 +4491,7 @@
         <v>300000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,16 +4499,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>1386.00002229214</v>
@@ -4538,7 +4520,7 @@
         <v>650000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4546,16 +4528,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>15315.3002643585</v>
@@ -4567,7 +4549,7 @@
         <v>600000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4575,16 +4557,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>1815.00007212162</v>
@@ -4596,7 +4578,7 @@
         <v>675000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,16 +4586,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>881.099998950958</v>
@@ -4625,7 +4607,7 @@
         <v>5050000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4633,16 +4615,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>29150.0010490418</v>
@@ -4654,7 +4636,7 @@
         <v>10000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,16 +4644,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>83112.2548241491</v>
@@ -4683,7 +4665,7 @@
         <v>300000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4691,16 +4673,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>7845.31193475072</v>
@@ -4712,7 +4694,7 @@
         <v>650000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,16 +4702,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>40917.2266906692</v>
@@ -4741,7 +4723,7 @@
         <v>600000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,16 +4731,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>2500.69318833494</v>
@@ -4770,7 +4752,7 @@
         <v>675000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,16 +4760,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>1117.95699454108</v>
@@ -4799,7 +4781,7 @@
         <v>5050000</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4807,16 +4789,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>26968.2609630145</v>
@@ -4828,7 +4810,7 @@
         <v>10000</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,16 +4818,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>30880.9840040867</v>
@@ -4857,7 +4839,7 @@
         <v>425000</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,16 +4847,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>743.270184041487</v>
@@ -4886,7 +4868,7 @@
         <v>650000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4894,16 +4876,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>28485.1494654694</v>
@@ -4915,7 +4897,7 @@
         <v>850000</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4923,16 +4905,16 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>242.474485849257</v>
@@ -4944,7 +4926,7 @@
         <v>5050000</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,16 +4934,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>56822.7025671684</v>
@@ -4973,7 +4955,7 @@
         <v>130000</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,16 +4963,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>10823.7021166512</v>
@@ -5002,7 +4984,7 @@
         <v>650000</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,16 +4992,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>3117.22620959555</v>
@@ -5031,7 +5013,7 @@
         <v>750000</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5039,16 +5021,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>1450.37608363126</v>
@@ -5060,7 +5042,7 @@
         <v>750000</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,16 +5050,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>5736.56212182514</v>
@@ -5089,7 +5071,7 @@
         <v>750000</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5097,16 +5079,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>519.537701599258</v>
@@ -5118,7 +5100,7 @@
         <v>750000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5126,16 +5108,16 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>3117.22620959555</v>
@@ -5147,7 +5129,7 @@
         <v>2333000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5155,16 +5137,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>0.385594403228</v>
@@ -5176,7 +5158,7 @@
         <v>10000000</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,16 +5166,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>20.565034021637</v>
@@ -5205,7 +5187,7 @@
         <v>12000000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,16 +5195,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>1232.27849785137</v>
@@ -5234,7 +5216,7 @@
         <v>2311000</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5242,16 +5224,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>9647.03841402576</v>
@@ -5263,7 +5245,7 @@
         <v>750000</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,16 +5253,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>43411.6736118246</v>
@@ -5292,7 +5274,7 @@
         <v>675000</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5300,16 +5282,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>9647.03841402576</v>
@@ -5321,7 +5303,7 @@
         <v>800000</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5329,16 +5311,16 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>13614.6895826822</v>
@@ -5350,7 +5332,7 @@
         <v>950000</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5358,16 +5340,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>1346.50776092461</v>
@@ -5379,7 +5361,7 @@
         <v>950000</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5387,16 +5369,16 @@
         <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>6.483185565879</v>
@@ -5408,7 +5390,7 @@
         <v>10000000</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,16 +5398,16 @@
         <v>10</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>181.529192825646</v>
@@ -5437,7 +5419,7 @@
         <v>12000000</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5445,16 +5427,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>10596.1183176031</v>
@@ -5466,7 +5448,7 @@
         <v>1200000</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5474,16 +5456,16 @@
         <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>1346.50776092461</v>
@@ -5495,7 +5477,7 @@
         <v>1300000</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5503,16 +5485,16 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>27915.4470194711</v>
@@ -5524,13 +5506,13 @@
         <v>1300000</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5556,25 +5538,25 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5582,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>59032.2576105036</v>
@@ -5605,7 +5587,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>36666.6666666667</v>
@@ -5628,7 +5610,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>268800</v>
@@ -5651,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>638.297872340426</v>
@@ -5674,7 +5656,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>54.12</v>
@@ -5697,7 +5679,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0.865833333333333</v>
@@ -5720,7 +5702,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.32291666666667</v>
@@ -5743,7 +5725,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5359.41666666667</v>
@@ -5766,7 +5748,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>32.1566666666667</v>
@@ -5789,7 +5771,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>64.8333333333333</v>
@@ -5812,7 +5794,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>249.444440039097</v>
@@ -5835,7 +5817,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>158.25</v>
@@ -5855,8 +5837,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5879,19 +5861,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5910,7 +5892,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.53"/>
@@ -5919,13 +5901,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5933,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>7136.67907444879</v>
@@ -5944,7 +5926,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>6223.03620036482</v>
@@ -5955,7 +5937,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>17444.1461494703</v>
@@ -5966,7 +5948,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>10941.9222699632</v>
@@ -5977,7 +5959,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>81.7521170353033</v>
@@ -5988,7 +5970,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>76.239689081148</v>
@@ -5999,7 +5981,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>734.464823495297</v>
@@ -6010,7 +5992,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5667.6329275322</v>
@@ -6021,7 +6003,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1173.86239343195</v>
@@ -6032,7 +6014,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>724.285703542014</v>
@@ -6043,7 +6025,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>177.290225027693</v>
@@ -6054,7 +6036,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>9232.43687834596</v>
@@ -6062,7 +6044,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>261.322247378328</v>
@@ -6070,7 +6052,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>24888.0190416619</v>
@@ -6078,7 +6060,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>13328.4113960832</v>
@@ -6086,7 +6068,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>58.4479914299166</v>
@@ -6094,7 +6076,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>-1724.34876438959</v>
@@ -6102,8 +6084,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
